--- a/app/src/main/assets/Basic Calculus.xlsx
+++ b/app/src/main/assets/Basic Calculus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\OneDrive\Desktop\FILES\Others\AcademicAlly Assessments\Complete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\AndroidStudioProjects\AcademicAlly\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2580A8C4-B1B8-48DC-B13D-D5D699783DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DA2199-3E2A-45CF-BF84-D4E4B846BFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multiple Choice " sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
   <si>
     <t>Which of the following is NOT a condition for a function to have a vertical asymptote at x = c?</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t xml:space="preserve"> t if (!) ≤ ](!) ≤ ℎ(!) for all ! for some interval (, _),</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -619,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,7 +638,7 @@
     <col min="6" max="6" width="60.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
@@ -657,8 +660,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
@@ -680,8 +686,11 @@
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -703,8 +712,11 @@
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -726,8 +738,11 @@
       <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
@@ -749,8 +764,11 @@
       <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
@@ -772,8 +790,11 @@
       <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>68</v>
       </c>
@@ -795,8 +816,11 @@
       <c r="G7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
@@ -818,8 +842,11 @@
       <c r="G8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>68</v>
       </c>
@@ -841,8 +868,11 @@
       <c r="G9" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -863,6 +893,9 @@
       </c>
       <c r="G10" t="s">
         <v>27</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -872,10 +905,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C87BA0A-996F-4EAD-AEA6-FB3054CE5A8D}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,7 +917,7 @@
     <col min="3" max="3" width="63.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
@@ -894,8 +927,11 @@
       <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
@@ -905,8 +941,11 @@
       <c r="C2" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -916,8 +955,11 @@
       <c r="C3" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -927,8 +969,11 @@
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
@@ -938,8 +983,11 @@
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
@@ -949,8 +997,11 @@
       <c r="C6" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -960,8 +1011,11 @@
       <c r="C7">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -971,8 +1025,11 @@
       <c r="C8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -982,8 +1039,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -992,6 +1052,9 @@
       </c>
       <c r="C10" t="s">
         <v>69</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1001,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97ABA754-BC51-4DEF-9781-97C174F9A32A}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1013,7 +1076,7 @@
     <col min="2" max="2" width="139.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
@@ -1023,8 +1086,11 @@
       <c r="C1" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
@@ -1034,8 +1100,11 @@
       <c r="C2" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -1045,8 +1114,11 @@
       <c r="C3" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -1056,8 +1128,11 @@
       <c r="C4" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
@@ -1067,8 +1142,11 @@
       <c r="C5" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
@@ -1078,8 +1156,11 @@
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -1089,8 +1170,11 @@
       <c r="C7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1100,8 +1184,11 @@
       <c r="C8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -1111,8 +1198,11 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -1121,6 +1211,9 @@
       </c>
       <c r="C10" t="b">
         <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
